--- a/StructureDefinition-ext-R5-Appointment.note.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-Appointment.note.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `Appointment.comment` 0..1 `string`
 *  R4: `Appointment.comment` 0..1 `string`
 Following are the generation technical comments:
-Element `Appointment.note` is mapped to FHIR R4 element `Appointment.comment`.</t>
+Element `Appointment.note` has is mapped to FHIR R4 element `Appointment.comment`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/StructureDefinition-ext-R5-Appointment.note.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-Appointment.note.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `Appointment.comment` 0..1 `string`
 *  R4: `Appointment.comment` 0..1 `string`
 Following are the generation technical comments:
-Element `Appointment.note` has is mapped to FHIR R4 element `Appointment.comment`, but has no comparisons.</t>
+Element `Appointment.note` is mapped to FHIR R4 element `Appointment.comment` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
